--- a/Fichero.xlsx
+++ b/Fichero.xlsx
@@ -104,7 +104,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -112,7 +112,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -120,17 +120,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>2</v>
       </c>
     </row>

--- a/Fichero.xlsx
+++ b/Fichero.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>100</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>DRZRW</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>DPIDC</t>
@@ -80,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,27 +110,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s" s="0">
         <v>2</v>
       </c>
     </row>
